--- a/office/LAB10_2.xlsx
+++ b/office/LAB10_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE9463C-3D0F-4C07-8481-070AB96C9198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{6AD99F83-8442-4765-A915-3CB73E05ED65}"/>
+    <workbookView minimized="1" xWindow="1752" yWindow="-120" windowWidth="37716" windowHeight="21840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1 (2)" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Лист2" sheetId="6" r:id="rId3"/>
     <sheet name="Лист3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,42 +373,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186E331-E0CE-44FE-9CCF-0AB425ACABE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H1">
         <f xml:space="preserve"> A4/6+C7*9+9*F3</f>
         <v>141539.66666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H2">
         <v>141539.66666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3">
         <v>7984</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15478</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>7456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -429,7 +428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>34</v>
       </c>
@@ -449,7 +448,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>123</v>
       </c>
@@ -469,7 +468,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>786</v>
       </c>
@@ -495,46 +494,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A335625-94B8-4ABC-9FAF-3601DF6D3023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32758975-4CE1-4A01-954A-FB32B9DCFF20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B191DFC7-4209-4AD5-8295-642CC431046C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
       <c r="D1">
         <v>1</v>
       </c>
@@ -542,10 +544,13 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -553,10 +558,13 @@
         <v>6.5135999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -564,10 +572,13 @@
         <v>17.977535999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="D4">
         <v>4</v>
       </c>
@@ -596,88 +607,124 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
       <c r="D6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
       <c r="D7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
       <c r="D8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
       <c r="D9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
       <c r="D10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
       <c r="D11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
       <c r="D12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
       <c r="D13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
       <c r="D14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>15</v>
       </c>
       <c r="D15">
